--- a/PackingSlip_Temp.xlsx
+++ b/PackingSlip_Temp.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lightriver-my.sharepoint.com/personal/zsimino_lightriver_com/Documents/Documents/GitHub/LAMIS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="8_{9EFA7263-F5C4-4B94-AAFF-3A3EB8CAE7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BFC7304-B2EC-43A9-9C16-373B4D682D0B}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="8_{9EFA7263-F5C4-4B94-AAFF-3A3EB8CAE7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E77A9FB5-E656-4986-81E3-6A94CFAE439D}"/>
   <bookViews>
-    <workbookView xWindow="31665" yWindow="4005" windowWidth="18990" windowHeight="12450" activeTab="1" xr2:uid="{DF2FF087-8054-44A5-9764-FF843E0BF832}"/>
+    <workbookView xWindow="2856" yWindow="1344" windowWidth="23040" windowHeight="8880" xr2:uid="{DF2FF087-8054-44A5-9764-FF843E0BF832}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="3" r:id="rId1"/>
+    <sheet name="Summary" sheetId="4" r:id="rId1"/>
     <sheet name="Packing Slip" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Packing Slip</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Device ID</t>
-  </si>
-  <si>
     <t>IP Address</t>
   </si>
   <si>
@@ -94,6 +91,12 @@
   </si>
   <si>
     <t>Device Summary</t>
+  </si>
+  <si>
+    <t>Device Name</t>
+  </si>
+  <si>
+    <t>System Type</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -871,6 +874,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,19 +1414,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4EA259-C12E-47DA-94B1-0E5C31878760}">
-  <dimension ref="B1:I101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A666A52-90C5-4F6E-9EB1-B32555165232}">
+  <dimension ref="B1:O101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -1410,9 +1443,15 @@
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -1420,9 +1459,15 @@
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+    </row>
+    <row r="4" spans="2:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -1430,27 +1475,45 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-    </row>
-    <row r="5" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B5" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="38" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I5" s="38"/>
-    </row>
-    <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="71"/>
+      <c r="N5" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="71"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="41"/>
@@ -1459,8 +1522,14 @@
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75"/>
+    </row>
+    <row r="7" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="28"/>
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
@@ -1469,8 +1538,14 @@
       <c r="G7" s="27"/>
       <c r="H7" s="28"/>
       <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="28"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="27"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="26"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
@@ -1479,8 +1554,14 @@
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
       <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="26"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="26"/>
       <c r="C9" s="25"/>
       <c r="D9" s="26"/>
@@ -1489,8 +1570,14 @@
       <c r="G9" s="25"/>
       <c r="H9" s="26"/>
       <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="26"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="25"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="26"/>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -1499,8 +1586,14 @@
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
       <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="26"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="26"/>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
@@ -1509,8 +1602,14 @@
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
       <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="26"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="26"/>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
@@ -1519,8 +1618,14 @@
       <c r="G12" s="25"/>
       <c r="H12" s="26"/>
       <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="26"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="25"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="26"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -1529,8 +1634,14 @@
       <c r="G13" s="25"/>
       <c r="H13" s="26"/>
       <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="26"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="25"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -1539,8 +1650,14 @@
       <c r="G14" s="25"/>
       <c r="H14" s="26"/>
       <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="26"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="25"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
@@ -1549,8 +1666,14 @@
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
       <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="26"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="25"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
@@ -1559,8 +1682,14 @@
       <c r="G16" s="25"/>
       <c r="H16" s="26"/>
       <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="26"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="25"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="26"/>
@@ -1569,8 +1698,14 @@
       <c r="G17" s="25"/>
       <c r="H17" s="26"/>
       <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="26"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="25"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
@@ -1579,8 +1714,14 @@
       <c r="G18" s="25"/>
       <c r="H18" s="26"/>
       <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="26"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="25"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
@@ -1589,8 +1730,14 @@
       <c r="G19" s="25"/>
       <c r="H19" s="26"/>
       <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="26"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="25"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="26"/>
@@ -1599,8 +1746,14 @@
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
       <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="26"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="25"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="26"/>
@@ -1609,8 +1762,14 @@
       <c r="G21" s="25"/>
       <c r="H21" s="26"/>
       <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="26"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="25"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
@@ -1619,8 +1778,14 @@
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
       <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="26"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="25"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="26"/>
@@ -1629,8 +1794,14 @@
       <c r="G23" s="25"/>
       <c r="H23" s="26"/>
       <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="26"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="25"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="26"/>
@@ -1639,8 +1810,14 @@
       <c r="G24" s="25"/>
       <c r="H24" s="26"/>
       <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="26"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="25"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
@@ -1649,8 +1826,14 @@
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
       <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="26"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="25"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="26"/>
@@ -1659,8 +1842,14 @@
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
       <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="26"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="25"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="26"/>
@@ -1669,8 +1858,14 @@
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
       <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="26"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="25"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
@@ -1679,8 +1874,14 @@
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
       <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="26"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="25"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="26"/>
@@ -1689,8 +1890,14 @@
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
       <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="26"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="25"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="26"/>
@@ -1699,8 +1906,14 @@
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
       <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="26"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="25"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
@@ -1709,8 +1922,14 @@
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
       <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="26"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="25"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="26"/>
@@ -1719,8 +1938,14 @@
       <c r="G32" s="25"/>
       <c r="H32" s="26"/>
       <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="26"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="25"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
@@ -1729,8 +1954,14 @@
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
       <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="26"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="25"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="26"/>
@@ -1739,8 +1970,14 @@
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
       <c r="I34" s="25"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="26"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="25"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="26"/>
@@ -1749,8 +1986,14 @@
       <c r="G35" s="25"/>
       <c r="H35" s="26"/>
       <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="26"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="25"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="26"/>
@@ -1759,8 +2002,14 @@
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
       <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="26"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="25"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="26"/>
@@ -1769,8 +2018,14 @@
       <c r="G37" s="25"/>
       <c r="H37" s="26"/>
       <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="26"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="25"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="26"/>
@@ -1779,8 +2034,14 @@
       <c r="G38" s="25"/>
       <c r="H38" s="26"/>
       <c r="I38" s="25"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="26"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="25"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="26"/>
@@ -1789,8 +2050,14 @@
       <c r="G39" s="25"/>
       <c r="H39" s="26"/>
       <c r="I39" s="25"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="26"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="25"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="26"/>
@@ -1799,8 +2066,14 @@
       <c r="G40" s="25"/>
       <c r="H40" s="26"/>
       <c r="I40" s="25"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="26"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="25"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="26"/>
@@ -1809,8 +2082,14 @@
       <c r="G41" s="25"/>
       <c r="H41" s="26"/>
       <c r="I41" s="25"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="26"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="25"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="26"/>
@@ -1819,8 +2098,14 @@
       <c r="G42" s="25"/>
       <c r="H42" s="26"/>
       <c r="I42" s="25"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="26"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="25"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="26"/>
@@ -1829,8 +2114,14 @@
       <c r="G43" s="25"/>
       <c r="H43" s="26"/>
       <c r="I43" s="25"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="26"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="25"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="26"/>
@@ -1839,8 +2130,14 @@
       <c r="G44" s="25"/>
       <c r="H44" s="26"/>
       <c r="I44" s="25"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="26"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="25"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="26"/>
@@ -1849,8 +2146,14 @@
       <c r="G45" s="25"/>
       <c r="H45" s="26"/>
       <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="26"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="25"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="26"/>
@@ -1859,8 +2162,14 @@
       <c r="G46" s="25"/>
       <c r="H46" s="26"/>
       <c r="I46" s="25"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="26"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="25"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="26"/>
@@ -1869,8 +2178,14 @@
       <c r="G47" s="25"/>
       <c r="H47" s="26"/>
       <c r="I47" s="25"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="26"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="25"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="26"/>
@@ -1879,8 +2194,14 @@
       <c r="G48" s="25"/>
       <c r="H48" s="26"/>
       <c r="I48" s="25"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="26"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="25"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
@@ -1889,8 +2210,14 @@
       <c r="G49" s="25"/>
       <c r="H49" s="26"/>
       <c r="I49" s="25"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="26"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="25"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="26"/>
@@ -1899,8 +2226,14 @@
       <c r="G50" s="25"/>
       <c r="H50" s="26"/>
       <c r="I50" s="25"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="26"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="25"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="26"/>
@@ -1909,8 +2242,14 @@
       <c r="G51" s="25"/>
       <c r="H51" s="26"/>
       <c r="I51" s="25"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="26"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="25"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="26"/>
@@ -1919,8 +2258,14 @@
       <c r="G52" s="25"/>
       <c r="H52" s="26"/>
       <c r="I52" s="25"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="26"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="25"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="26"/>
@@ -1929,8 +2274,14 @@
       <c r="G53" s="25"/>
       <c r="H53" s="26"/>
       <c r="I53" s="25"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="26"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="25"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
@@ -1939,8 +2290,14 @@
       <c r="G54" s="25"/>
       <c r="H54" s="26"/>
       <c r="I54" s="25"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="26"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="25"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="26"/>
@@ -1949,8 +2306,14 @@
       <c r="G55" s="25"/>
       <c r="H55" s="26"/>
       <c r="I55" s="25"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="26"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="25"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="26"/>
@@ -1959,8 +2322,14 @@
       <c r="G56" s="25"/>
       <c r="H56" s="26"/>
       <c r="I56" s="25"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="26"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="25"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="26"/>
@@ -1969,8 +2338,14 @@
       <c r="G57" s="25"/>
       <c r="H57" s="26"/>
       <c r="I57" s="25"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="26"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="25"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="26"/>
@@ -1979,8 +2354,14 @@
       <c r="G58" s="25"/>
       <c r="H58" s="26"/>
       <c r="I58" s="25"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="26"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="25"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="26"/>
@@ -1989,8 +2370,14 @@
       <c r="G59" s="25"/>
       <c r="H59" s="26"/>
       <c r="I59" s="25"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="26"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="25"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="26"/>
@@ -1999,8 +2386,14 @@
       <c r="G60" s="25"/>
       <c r="H60" s="26"/>
       <c r="I60" s="25"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="26"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="25"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="26"/>
@@ -2009,8 +2402,14 @@
       <c r="G61" s="25"/>
       <c r="H61" s="26"/>
       <c r="I61" s="25"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="26"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="25"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="26"/>
@@ -2019,8 +2418,14 @@
       <c r="G62" s="25"/>
       <c r="H62" s="26"/>
       <c r="I62" s="25"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="26"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="25"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="26"/>
@@ -2029,8 +2434,14 @@
       <c r="G63" s="25"/>
       <c r="H63" s="26"/>
       <c r="I63" s="25"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="26"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="25"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="26"/>
@@ -2039,8 +2450,14 @@
       <c r="G64" s="25"/>
       <c r="H64" s="26"/>
       <c r="I64" s="25"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="26"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="25"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="26"/>
@@ -2049,8 +2466,14 @@
       <c r="G65" s="25"/>
       <c r="H65" s="26"/>
       <c r="I65" s="25"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="26"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="25"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="26"/>
@@ -2059,8 +2482,14 @@
       <c r="G66" s="25"/>
       <c r="H66" s="26"/>
       <c r="I66" s="25"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="26"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="25"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="26"/>
@@ -2069,8 +2498,14 @@
       <c r="G67" s="25"/>
       <c r="H67" s="26"/>
       <c r="I67" s="25"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="26"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="25"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="26"/>
@@ -2079,8 +2514,14 @@
       <c r="G68" s="25"/>
       <c r="H68" s="26"/>
       <c r="I68" s="25"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="26"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="25"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="26"/>
@@ -2089,8 +2530,14 @@
       <c r="G69" s="25"/>
       <c r="H69" s="26"/>
       <c r="I69" s="25"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="26"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="25"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="26"/>
@@ -2099,8 +2546,14 @@
       <c r="G70" s="25"/>
       <c r="H70" s="26"/>
       <c r="I70" s="25"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="26"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="25"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="26"/>
@@ -2109,8 +2562,14 @@
       <c r="G71" s="25"/>
       <c r="H71" s="26"/>
       <c r="I71" s="25"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="26"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="25"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="26"/>
@@ -2119,8 +2578,14 @@
       <c r="G72" s="25"/>
       <c r="H72" s="26"/>
       <c r="I72" s="25"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="26"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="25"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="26"/>
@@ -2129,8 +2594,14 @@
       <c r="G73" s="25"/>
       <c r="H73" s="26"/>
       <c r="I73" s="25"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="26"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="25"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="26"/>
@@ -2139,8 +2610,14 @@
       <c r="G74" s="25"/>
       <c r="H74" s="26"/>
       <c r="I74" s="25"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="26"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="25"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="26"/>
@@ -2149,8 +2626,14 @@
       <c r="G75" s="25"/>
       <c r="H75" s="26"/>
       <c r="I75" s="25"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="26"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="25"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="26"/>
@@ -2159,8 +2642,14 @@
       <c r="G76" s="25"/>
       <c r="H76" s="26"/>
       <c r="I76" s="25"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="26"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="25"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="26"/>
@@ -2169,8 +2658,14 @@
       <c r="G77" s="25"/>
       <c r="H77" s="26"/>
       <c r="I77" s="25"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="26"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="25"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="26"/>
@@ -2179,8 +2674,14 @@
       <c r="G78" s="25"/>
       <c r="H78" s="26"/>
       <c r="I78" s="25"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="26"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="25"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="26"/>
@@ -2189,8 +2690,14 @@
       <c r="G79" s="25"/>
       <c r="H79" s="26"/>
       <c r="I79" s="25"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="26"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="25"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="26"/>
@@ -2199,8 +2706,14 @@
       <c r="G80" s="25"/>
       <c r="H80" s="26"/>
       <c r="I80" s="25"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="26"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="25"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="26"/>
@@ -2209,8 +2722,14 @@
       <c r="G81" s="25"/>
       <c r="H81" s="26"/>
       <c r="I81" s="25"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="26"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="25"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="26"/>
@@ -2219,8 +2738,14 @@
       <c r="G82" s="25"/>
       <c r="H82" s="26"/>
       <c r="I82" s="25"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="26"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="25"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B83" s="26"/>
       <c r="C83" s="25"/>
       <c r="D83" s="26"/>
@@ -2229,8 +2754,14 @@
       <c r="G83" s="25"/>
       <c r="H83" s="26"/>
       <c r="I83" s="25"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="26"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="25"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B84" s="26"/>
       <c r="C84" s="25"/>
       <c r="D84" s="26"/>
@@ -2239,8 +2770,14 @@
       <c r="G84" s="25"/>
       <c r="H84" s="26"/>
       <c r="I84" s="25"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="26"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="25"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B85" s="26"/>
       <c r="C85" s="25"/>
       <c r="D85" s="26"/>
@@ -2249,8 +2786,14 @@
       <c r="G85" s="25"/>
       <c r="H85" s="26"/>
       <c r="I85" s="25"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="26"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="25"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B86" s="26"/>
       <c r="C86" s="25"/>
       <c r="D86" s="26"/>
@@ -2259,8 +2802,14 @@
       <c r="G86" s="25"/>
       <c r="H86" s="26"/>
       <c r="I86" s="25"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="26"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="25"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B87" s="26"/>
       <c r="C87" s="25"/>
       <c r="D87" s="26"/>
@@ -2269,8 +2818,14 @@
       <c r="G87" s="25"/>
       <c r="H87" s="26"/>
       <c r="I87" s="25"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="26"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="25"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B88" s="26"/>
       <c r="C88" s="25"/>
       <c r="D88" s="26"/>
@@ -2279,8 +2834,14 @@
       <c r="G88" s="25"/>
       <c r="H88" s="26"/>
       <c r="I88" s="25"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="26"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="25"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B89" s="26"/>
       <c r="C89" s="25"/>
       <c r="D89" s="26"/>
@@ -2289,8 +2850,14 @@
       <c r="G89" s="25"/>
       <c r="H89" s="26"/>
       <c r="I89" s="25"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="26"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="25"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B90" s="26"/>
       <c r="C90" s="25"/>
       <c r="D90" s="26"/>
@@ -2299,8 +2866,14 @@
       <c r="G90" s="25"/>
       <c r="H90" s="26"/>
       <c r="I90" s="25"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="26"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="25"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B91" s="26"/>
       <c r="C91" s="25"/>
       <c r="D91" s="26"/>
@@ -2309,8 +2882,14 @@
       <c r="G91" s="25"/>
       <c r="H91" s="26"/>
       <c r="I91" s="25"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="26"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="25"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B92" s="26"/>
       <c r="C92" s="25"/>
       <c r="D92" s="26"/>
@@ -2319,8 +2898,14 @@
       <c r="G92" s="25"/>
       <c r="H92" s="26"/>
       <c r="I92" s="25"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="26"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="25"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B93" s="26"/>
       <c r="C93" s="25"/>
       <c r="D93" s="26"/>
@@ -2329,8 +2914,14 @@
       <c r="G93" s="25"/>
       <c r="H93" s="26"/>
       <c r="I93" s="25"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="26"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="25"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B94" s="26"/>
       <c r="C94" s="25"/>
       <c r="D94" s="26"/>
@@ -2339,8 +2930,14 @@
       <c r="G94" s="25"/>
       <c r="H94" s="26"/>
       <c r="I94" s="25"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="26"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="25"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B95" s="26"/>
       <c r="C95" s="25"/>
       <c r="D95" s="26"/>
@@ -2349,8 +2946,14 @@
       <c r="G95" s="25"/>
       <c r="H95" s="26"/>
       <c r="I95" s="25"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="26"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="25"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B96" s="26"/>
       <c r="C96" s="25"/>
       <c r="D96" s="26"/>
@@ -2359,8 +2962,14 @@
       <c r="G96" s="25"/>
       <c r="H96" s="26"/>
       <c r="I96" s="25"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="26"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="25"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B97" s="26"/>
       <c r="C97" s="25"/>
       <c r="D97" s="26"/>
@@ -2369,8 +2978,14 @@
       <c r="G97" s="25"/>
       <c r="H97" s="26"/>
       <c r="I97" s="25"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="26"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="25"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B98" s="26"/>
       <c r="C98" s="25"/>
       <c r="D98" s="26"/>
@@ -2379,8 +2994,14 @@
       <c r="G98" s="25"/>
       <c r="H98" s="26"/>
       <c r="I98" s="25"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="26"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="25"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B99" s="26"/>
       <c r="C99" s="25"/>
       <c r="D99" s="26"/>
@@ -2389,8 +3010,14 @@
       <c r="G99" s="25"/>
       <c r="H99" s="26"/>
       <c r="I99" s="25"/>
-    </row>
-    <row r="100" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J99" s="26"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="25"/>
+    </row>
+    <row r="100" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="24"/>
       <c r="C100" s="23"/>
       <c r="D100" s="24"/>
@@ -2399,15 +3026,24 @@
       <c r="G100" s="23"/>
       <c r="H100" s="24"/>
       <c r="I100" s="23"/>
-    </row>
-    <row r="101" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="23"/>
+    </row>
+    <row r="101" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:I4"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:O4"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:E6"/>
     <mergeCell ref="F5:G6"/>
     <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="N5:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2418,7 +3054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7058A5-662B-46E4-A574-4D7BC5099ECA}">
   <dimension ref="B1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
